--- a/docs/python测试开发课程实战—商业实战课程规划V1.5.xlsx
+++ b/docs/python测试开发课程实战—商业实战课程规划V1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Lux\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Nahsor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{01C41866-4098-4E3C-A80C-CDBE852D815E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{507F26F8-B6D1-4F2A-928C-993F512EB849}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="219">
   <si>
     <r>
       <rPr>
@@ -192,161 +192,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">通过本课程的学习可以掌握以下几点：
-1、掌握flaskWEB开发框架
-2、掌握restful服务设计方法以及接口开发
-3、掌握市面上流程的接口测试工具的原理和开发方法
-4、完整的自动化接口测试的解决方案
-5、性能测试的理论和方法，以及性能测试工具的开发
-6、数据分离，应用数据库做测试数据配置和管理
-</t>
-    <rPh sb="22" eb="23">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>you</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>yi ge</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zheng ti</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>de</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ren zhi</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>de</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>jing sui</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>neng gou</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>qing song</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ying dui</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>wai</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>hai</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>zhang wo</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>de</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>kai fa</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>fang fa</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>wan cheng</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>zheng</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>de</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>zi dong hua</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>de</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>jie jue</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>fang an</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>zhang wo</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>kuang jia</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>zhang wo</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ping tai</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>da jian</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>ren yuan</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>chan chu</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>kai fa</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>cheng guoweizi dong huace shijiqian hou duanfen lizuo chugong xiankezhang wodengkai fakuang jiakezhang wochi xu ji chenggong jushu juqu dongdeli nianyucao zuodengduo geji shu dian</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此课程是基于python实现的测试开发课程，是自动化测试的进阶，通过这个课程，我们可以掌握一个测试工具是如何实现的，比如jmeter，postman。课程内容我们以开发实现一个以慕课网为目标的定制开发的测试平台，能够直接在页面上，添加测试数据，一键执行测试并生成测试报告。整个课程包含了flaskweb开发，接口自动化、restful接口开发、pytest测试框架、数据交互等完整的系统开发技术。</t>
     <rPh sb="0" eb="1">
       <t>ci</t>
@@ -1307,6 +1152,265 @@
   <si>
     <t>这一块保留，可能会不讲</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>手把手带你开发一个性能测试工具</t>
+    <rPh sb="0" eb="1">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi dong hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi zhan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke cheng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此课程是基于python实现的测试开发课程，是自动化测试的进阶，通过这个课程，我们可以掌握一个测试工具是如何实现的，比如jmeter，postman。课程内容我们以开发实现一个以多线程为核心的接口性能测试工具，实现参数化、定制脚本，一键执行测试并生成测试报告等核心功能。整个课程包含了python开发，多线程、restful接口开发、接口测试、数据交互等完整的系统开发技术。</t>
+    <rPh sb="0" eb="1">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ke cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi dong hua</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ke cheng</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>le</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zi dong hua</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jiao ben</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>kuang jia</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>chi xu ji cheng</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>mo kuai</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>de</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ke cheng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通过本课程的学习可以掌握以下几点：
+1、掌握性能测试工具的原理
+2、掌握多线程开发的技术
+3、掌握接口开发技术
+4、完整的自动化接口测试的解决方案
+5、性能测试的理论和方法，以及性能测试工具的开发
+6、数据分离，应用数据库做测试数据配置和管理
+</t>
+    <rPh sb="22" eb="23">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zheng ti</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ren zhi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jing sui</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>neng gou</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>qing song</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ying dui</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>hai</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zhang wo</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>de</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>fang fa</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>de</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>zi dong hua</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>de</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>fang an</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>zhang wo</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>kuang jia</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>zhang wo</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ping tai</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>da jian</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ren yuan</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>chan chu</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>cheng guoweizi dong huace shijiqian hou duanfen lizuo chugong xiankezhang wodengkai fakuang jiakezhang wochi xu ji chenggong jushu juqu dongdeli nianyucao zuodengduo geji shu dian</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2625,20 +2729,26 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2648,12 +2758,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3851,7 +3955,7 @@
       </c>
       <c r="B5" s="127"/>
       <c r="C5" s="130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="131"/>
       <c r="E5" s="131"/>
@@ -3874,7 +3978,7 @@
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="136"/>
       <c r="C8" s="136"/>
@@ -3910,7 +4014,7 @@
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="138"/>
       <c r="C12" s="139"/>
@@ -3975,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4022,42 +4126,42 @@
         <v>2</v>
       </c>
       <c r="B21" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="D21" s="11">
         <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="133"/>
       <c r="B22" s="134"/>
       <c r="C22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="133"/>
       <c r="B23" s="134"/>
       <c r="C23" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="11">
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4065,29 +4169,29 @@
         <v>3</v>
       </c>
       <c r="B24" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D24" s="11">
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="151"/>
       <c r="B25" s="153"/>
       <c r="C25" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="11">
         <v>15</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4095,68 +4199,68 @@
         <v>4</v>
       </c>
       <c r="B26" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="57" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>39</v>
       </c>
       <c r="D26" s="40">
         <v>5</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="158"/>
       <c r="B27" s="157"/>
       <c r="C27" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="40">
         <v>5</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="158"/>
       <c r="B28" s="157"/>
       <c r="C28" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="40">
         <v>5</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="158"/>
       <c r="B29" s="157"/>
       <c r="C29" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="66">
         <v>8</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="158"/>
       <c r="B30" s="157"/>
       <c r="C30" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="66">
         <v>8</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4164,42 +4268,42 @@
         <v>5</v>
       </c>
       <c r="B31" s="155" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="53" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>44</v>
       </c>
       <c r="D31" s="66">
         <v>10</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="154"/>
       <c r="B32" s="156"/>
       <c r="C32" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="67">
         <v>10</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="154"/>
       <c r="B33" s="156"/>
       <c r="C33" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="52">
         <v>10</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4207,55 +4311,55 @@
         <v>6</v>
       </c>
       <c r="B34" s="165" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>48</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>49</v>
       </c>
       <c r="D34" s="45">
         <v>15</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="162"/>
       <c r="B35" s="166"/>
       <c r="C35" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="48">
         <v>15</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="163"/>
       <c r="B36" s="166"/>
       <c r="C36" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="50">
         <v>15</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="164"/>
       <c r="B37" s="166"/>
       <c r="C37" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="52">
         <v>10</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4263,42 +4367,42 @@
         <v>7</v>
       </c>
       <c r="B38" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="D38" s="37">
         <v>45</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="151"/>
       <c r="B39" s="167"/>
       <c r="C39" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="37">
         <v>45</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="168"/>
       <c r="B40" s="167"/>
       <c r="C40" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="37">
         <v>30</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4306,42 +4410,42 @@
         <v>8</v>
       </c>
       <c r="B41" s="167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="65" t="s">
         <v>57</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>58</v>
       </c>
       <c r="D41" s="63">
         <v>10</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="151"/>
       <c r="B42" s="167"/>
       <c r="C42" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="8">
         <v>8</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="151"/>
       <c r="B43" s="167"/>
       <c r="C43" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="8">
         <v>30</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4349,55 +4453,55 @@
         <v>9</v>
       </c>
       <c r="B44" s="155" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>61</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>62</v>
       </c>
       <c r="D44" s="54">
         <v>5</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="158"/>
       <c r="B45" s="156"/>
       <c r="C45" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="54">
         <v>30</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="158"/>
       <c r="B46" s="156"/>
       <c r="C46" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="54">
         <v>45</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="158"/>
       <c r="B47" s="169"/>
       <c r="C47" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="58">
         <v>30</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4405,42 +4509,42 @@
         <v>10</v>
       </c>
       <c r="B48" s="160" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="D48" s="40">
         <v>10</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="159"/>
       <c r="B49" s="161"/>
       <c r="C49" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="40">
         <v>10</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="159"/>
       <c r="B50" s="161"/>
       <c r="C50" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="40">
         <v>30</v>
       </c>
       <c r="E50" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4448,55 +4552,55 @@
         <v>11</v>
       </c>
       <c r="B51" s="171" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="39" t="s">
         <v>70</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>71</v>
       </c>
       <c r="D51" s="54">
         <v>30</v>
       </c>
       <c r="E51" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="159"/>
       <c r="B52" s="172"/>
       <c r="C52" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="54">
         <v>20</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="159"/>
       <c r="B53" s="172"/>
       <c r="C53" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="54">
         <v>45</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="159"/>
       <c r="B54" s="172"/>
       <c r="C54" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="54">
         <v>45</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4504,42 +4608,42 @@
         <v>12</v>
       </c>
       <c r="B55" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="57" t="s">
         <v>75</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>76</v>
       </c>
       <c r="D55" s="58">
         <v>5</v>
       </c>
       <c r="E55" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="183"/>
       <c r="B56" s="181"/>
       <c r="C56" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" s="54">
         <v>10</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="184"/>
       <c r="B57" s="182"/>
       <c r="C57" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="54">
         <v>15</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4547,7 +4651,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>21</v>
@@ -4564,39 +4668,39 @@
         <v>14</v>
       </c>
       <c r="B59" s="176" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" s="54">
         <v>20</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="175"/>
       <c r="B60" s="155"/>
       <c r="C60" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60" s="43">
         <v>10</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="178"/>
       <c r="C61" s="179"/>
       <c r="D61" s="72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="35"/>
     </row>
@@ -6064,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6117,11 +6221,11 @@
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="126" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="B5" s="127"/>
       <c r="C5" s="130" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="D5" s="131"/>
       <c r="E5" s="131"/>
@@ -6144,7 +6248,7 @@
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="B8" s="136"/>
       <c r="C8" s="136"/>
@@ -6180,7 +6284,7 @@
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="138"/>
       <c r="C12" s="139"/>
@@ -6235,48 +6339,48 @@
       <c r="A17" s="185">
         <v>1</v>
       </c>
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="205" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="84" t="s">
         <v>121</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>122</v>
       </c>
       <c r="D17" s="81"/>
       <c r="E17" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="185"/>
-      <c r="B18" s="208"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="185"/>
-      <c r="B19" s="208"/>
+      <c r="B19" s="205"/>
       <c r="C19" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="185"/>
-      <c r="B20" s="208"/>
+      <c r="B20" s="205"/>
       <c r="C20" s="84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6284,36 +6388,36 @@
         <v>2</v>
       </c>
       <c r="B21" s="186" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="158"/>
       <c r="B22" s="186"/>
       <c r="C22" s="84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="158"/>
       <c r="B23" s="186"/>
       <c r="C23" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="66"/>
       <c r="E23" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6321,36 +6425,36 @@
         <v>3</v>
       </c>
       <c r="B24" s="186" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="67"/>
       <c r="E24" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="185"/>
       <c r="B25" s="186"/>
       <c r="C25" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="185"/>
       <c r="B26" s="186"/>
       <c r="C26" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="79"/>
       <c r="E26" s="80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6358,150 +6462,150 @@
         <v>4</v>
       </c>
       <c r="B27" s="186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="75"/>
       <c r="E27" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="193"/>
-      <c r="B28" s="201"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="111"/>
       <c r="E28" s="112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="185"/>
       <c r="B29" s="186"/>
       <c r="C29" s="84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="185">
         <v>5</v>
       </c>
-      <c r="B30" s="202" t="s">
-        <v>212</v>
+      <c r="B30" s="200" t="s">
+        <v>211</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="185"/>
-      <c r="B31" s="202"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="193"/>
-      <c r="B32" s="203"/>
+      <c r="B32" s="201"/>
       <c r="C32" s="109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="107"/>
       <c r="E32" s="101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="193"/>
-      <c r="B33" s="203"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="193"/>
-      <c r="B34" s="203"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="193"/>
-      <c r="B35" s="203"/>
+      <c r="B35" s="201"/>
       <c r="C35" s="100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" s="98"/>
       <c r="E35" s="101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="193"/>
-      <c r="B36" s="203"/>
+      <c r="B36" s="201"/>
       <c r="C36" s="100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="98"/>
       <c r="E36" s="101" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="193"/>
-      <c r="B37" s="203"/>
+      <c r="B37" s="201"/>
       <c r="C37" s="100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" s="107"/>
       <c r="E37" s="101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="185"/>
-      <c r="B38" s="202"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D38" s="95"/>
       <c r="E38" s="96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="185"/>
-      <c r="B39" s="202"/>
+      <c r="B39" s="200"/>
       <c r="C39" s="84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D39" s="102"/>
       <c r="E39" s="104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6509,69 +6613,69 @@
         <v>6</v>
       </c>
       <c r="B40" s="187" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="93"/>
       <c r="E40" s="104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="195"/>
       <c r="B41" s="188"/>
       <c r="C41" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="77"/>
       <c r="E41" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="195"/>
       <c r="B42" s="188"/>
       <c r="C42" s="97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D42" s="105"/>
       <c r="E42" s="106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="195"/>
       <c r="B43" s="188"/>
       <c r="C43" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="77"/>
       <c r="E43" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="195"/>
       <c r="B44" s="188"/>
       <c r="C44" s="84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="77"/>
       <c r="E44" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="196"/>
       <c r="B45" s="189"/>
       <c r="C45" s="97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45" s="105"/>
       <c r="E45" s="106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6579,36 +6683,36 @@
         <v>7</v>
       </c>
       <c r="B46" s="190" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="105"/>
       <c r="E46" s="106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="183"/>
       <c r="B47" s="191"/>
       <c r="C47" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="77"/>
       <c r="E47" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="183"/>
       <c r="B48" s="191"/>
       <c r="C48" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="77"/>
       <c r="E48" s="108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6616,82 +6720,82 @@
         <v>8</v>
       </c>
       <c r="B49" s="186" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="97"/>
       <c r="E49" s="97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="185"/>
       <c r="B50" s="186"/>
       <c r="C50" s="84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="66"/>
       <c r="E50" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="185"/>
       <c r="B51" s="186"/>
       <c r="C51" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="66"/>
       <c r="E51" s="56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="185">
         <v>9</v>
       </c>
-      <c r="B52" s="200" t="s">
-        <v>210</v>
+      <c r="B52" s="202" t="s">
+        <v>209</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="66"/>
       <c r="E52" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="185"/>
-      <c r="B53" s="200"/>
+      <c r="B53" s="202"/>
       <c r="C53" s="84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="66"/>
       <c r="E53" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="158">
         <v>10</v>
       </c>
-      <c r="B54" s="200" t="s">
-        <v>209</v>
+      <c r="B54" s="202" t="s">
+        <v>208</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D54" s="77"/>
       <c r="E54" s="56"/>
     </row>
     <row r="55" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="163"/>
-      <c r="B55" s="207"/>
+      <c r="B55" s="203"/>
       <c r="C55" s="86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="77"/>
       <c r="E55" s="78"/>
@@ -6701,10 +6805,10 @@
         <v>11</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" s="74"/>
       <c r="E56" s="80"/>
@@ -6727,7 +6831,7 @@
     </row>
     <row r="59" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="149"/>
-      <c r="B59" s="199"/>
+      <c r="B59" s="204"/>
       <c r="C59" s="89"/>
       <c r="D59" s="75"/>
       <c r="E59" s="46"/>
@@ -6735,7 +6839,7 @@
     </row>
     <row r="60" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="149"/>
-      <c r="B60" s="199"/>
+      <c r="B60" s="204"/>
       <c r="C60" s="89"/>
       <c r="D60" s="75"/>
       <c r="E60" s="46"/>
@@ -6743,7 +6847,7 @@
     </row>
     <row r="61" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="149"/>
-      <c r="B61" s="199"/>
+      <c r="B61" s="204"/>
       <c r="C61" s="89"/>
       <c r="D61" s="75"/>
       <c r="E61" s="46"/>
@@ -6751,7 +6855,7 @@
     </row>
     <row r="62" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="149"/>
-      <c r="B62" s="199"/>
+      <c r="B62" s="204"/>
       <c r="C62" s="89"/>
       <c r="D62" s="75"/>
       <c r="E62" s="46"/>
@@ -6759,7 +6863,7 @@
     </row>
     <row r="63" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="149"/>
-      <c r="B63" s="199"/>
+      <c r="B63" s="204"/>
       <c r="C63" s="89"/>
       <c r="D63" s="75"/>
       <c r="E63" s="46"/>
@@ -8309,48 +8413,48 @@
       <c r="B129" s="185">
         <v>2</v>
       </c>
-      <c r="C129" s="208" t="s">
-        <v>165</v>
+      <c r="C129" s="205" t="s">
+        <v>164</v>
       </c>
       <c r="D129" s="84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E129" s="66"/>
       <c r="F129" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="69" x14ac:dyDescent="0.15">
       <c r="B130" s="185"/>
-      <c r="C130" s="208"/>
+      <c r="C130" s="205"/>
       <c r="D130" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E130" s="66"/>
       <c r="F130" s="76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B131" s="185"/>
-      <c r="C131" s="208"/>
+      <c r="C131" s="205"/>
       <c r="D131" s="84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E131" s="66"/>
       <c r="F131" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B132" s="185"/>
-      <c r="C132" s="208"/>
+      <c r="C132" s="205"/>
       <c r="D132" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E132" s="66"/>
       <c r="F132" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
@@ -8358,42 +8462,42 @@
         <v>3</v>
       </c>
       <c r="C133" s="186" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D133" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E133" s="66"/>
-      <c r="F133" s="204" t="s">
-        <v>153</v>
+      <c r="F133" s="206" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B134" s="158"/>
       <c r="C134" s="186"/>
       <c r="D134" s="84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E134" s="66"/>
-      <c r="F134" s="205"/>
+      <c r="F134" s="207"/>
     </row>
     <row r="135" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B135" s="158"/>
       <c r="C135" s="186"/>
       <c r="D135" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E135" s="66"/>
-      <c r="F135" s="205"/>
+      <c r="F135" s="207"/>
     </row>
     <row r="136" spans="2:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B136" s="158"/>
       <c r="C136" s="186"/>
       <c r="D136" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E136" s="66"/>
-      <c r="F136" s="206"/>
+      <c r="F136" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="5">
